--- a/biology/Zoologie/Aphidecta_marginata/Aphidecta_marginata.xlsx
+++ b/biology/Zoologie/Aphidecta_marginata/Aphidecta_marginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adalia marginata
 Aphidecta marginata est une espèce fossile d'insecte coléoptère de la famille des Coccinellidae.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Adalia marginata est décrite en 1891 par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924)[1],[2].
-Renommage
-L'espèce Adalia marginata est renommée dans le genre Aphidecta en 1937 par le paléontologue français Nicolas Théobald (1903-1981)[3],[2].
-Étymologie
-L'épithète spécifique latine marginata signifie « marginalisé »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adalia marginata est décrite en 1891 par l'entomologiste et paléontologue allemand Bruno Förster (1852-1924),.
 </t>
         </is>
       </c>
@@ -544,17 +554,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Adalia marginata est renommée dans le genre Aphidecta en 1937 par le paléontologue français Nicolas Théobald (1903-1981),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine marginata signifie « marginalisé »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-« Je rapporte à l'espèce décrite par Förster un élytre droit (R259 de la collection Mieg du Museum de Bâle, gisement Kleinkembs). Élytre de teinte noirâtre en avant, plus claire en arrière ; surface à peine bombée, parsemée de fines ponctuations qui lui donnent un aspect chagriné ; scutellum triangulaire, équilatéral ; épaule non arrondie ; bords presque parallèles, s'arrondit dans le tiers postérieur. »[3].
-Dimensions
-La longueur de l'élytre est de 3 mm et la largeur de 1,2 mm[3].
-Affinités
-« L'échantillon de Brunstatt que Förster a décrit sous le nom de Adalia marginata, est mal conservé. Förster le rapproche de Adalia (Aphidecta) obliterata L. Ceci nous semble très douteux, car ce dernier a le corps plus globuleux. Les restes, dont nous disposons, sont d'ailleurs insuffisants pour faire une détermination précise. »[3].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Je rapporte à l'espèce décrite par Förster un élytre droit (R259 de la collection Mieg du Museum de Bâle, gisement Kleinkembs). Élytre de teinte noirâtre en avant, plus claire en arrière ; surface à peine bombée, parsemée de fines ponctuations qui lui donnent un aspect chagriné ; scutellum triangulaire, équilatéral ; épaule non arrondie ; bords presque parallèles, s'arrondit dans le tiers postérieur. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur de l'élytre est de 3 mm et la largeur de 1,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphidecta_marginata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'échantillon de Brunstatt que Förster a décrit sous le nom de Adalia marginata, est mal conservé. Förster le rapproche de Adalia (Aphidecta) obliterata L. Ceci nous semble très douteux, car ce dernier a le corps plus globuleux. Les restes, dont nous disposons, sont d'ailleurs insuffisants pour faire une détermination précise. ».
 </t>
         </is>
       </c>
